--- a/retail/data/TestData/elementDate.xlsx
+++ b/retail/data/TestData/elementDate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="elementsInfo" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="301">
   <si>
     <t>模块</t>
   </si>
@@ -213,7 +213,7 @@
     <t>By.XPATH</t>
   </si>
   <si>
-    <t>/html/body/div[5]/div[2]/div[3]/div[1]/div/table/tbody/tr/td/table/tbody/tr/td[2]</t>
+    <t>//td[@class='infoIcon']/following::td[1]</t>
   </si>
   <si>
     <t>错误提示框</t>
@@ -282,19 +282,82 @@
     <t>memberTypeNum</t>
   </si>
   <si>
+    <r>
+      <t>//*[@class="u-combobox-items-container"]//span[text()='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人会员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <t>个人会员</t>
+  </si>
+  <si>
     <t>//*[@class="u-combobox-items-container"]/table/tbody/tr[1]/td/span</t>
   </si>
   <si>
-    <t>个人会员</t>
-  </si>
-  <si>
-    <t>//*[@class="u-combobox-items-container"]/table/tbody/tr[2]/td/span</t>
+    <r>
+      <t>//*[@class="u-combobox-items-container"]//span[text()='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业会员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
   </si>
   <si>
     <t>企业会员</t>
   </si>
   <si>
-    <t>//*[@class="u-combobox-items-container"]/table/tbody/tr[3]/td/span</t>
+    <r>
+      <t>//*[@class="u-combobox-items-container"]//span[text()='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
   </si>
   <si>
     <t>其他</t>
@@ -312,16 +375,85 @@
     <t>memberLevelNum</t>
   </si>
   <si>
+    <r>
+      <t>//*[@class="u-combobox-items-container"]//span[text()='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准会员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
     <t>标准会员</t>
   </si>
   <si>
+    <r>
+      <t>//*[@class="u-combobox-items-container"]//span[text()='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄金会员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
     <t>黄金会员</t>
   </si>
   <si>
+    <r>
+      <t>//*[@class="u-combobox-items-container"]//span[text()='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铂金会员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
     <t>铂金会员</t>
   </si>
   <si>
-    <t>//*[@class="u-combobox-items-container"]/table/tbody/tr[4]/td/span</t>
+    <t>//*[@class="u-combobox-items-container"]//span[text()='钻石会员']</t>
   </si>
   <si>
     <t>钻石会员</t>
@@ -351,12 +483,15 @@
     <t>qFailerr</t>
   </si>
   <si>
+    <t>//td[@class='errorIcon']/following::td[1]</t>
+  </si>
+  <si>
+    <t>查询失败的错误提示</t>
+  </si>
+  <si>
     <t>//*[@class='messageBg']/tbody/tr/td/table/tbody/tr/td[2]</t>
   </si>
   <si>
-    <t>查询失败的错误提示</t>
-  </si>
-  <si>
     <t>confirmBtn</t>
   </si>
   <si>
@@ -486,6 +621,9 @@
     <t>errMsg</t>
   </si>
   <si>
+    <t>//td[@class='warnIcon']/following::td[1]</t>
+  </si>
+  <si>
     <t>输入项校验提示框</t>
   </si>
   <si>
@@ -507,7 +645,7 @@
     <t>queryBox</t>
   </si>
   <si>
-    <t>//form[@id='dlg_0filterForm']/table/tbody/tr/td[2]/div/div[3]/div[3]/input</t>
+    <t>//input[@id='dlg_0condition_unieap_input']</t>
   </si>
   <si>
     <t>查询条件输入框</t>
@@ -531,10 +669,50 @@
     <t>单位窗口数据列表</t>
   </si>
   <si>
-    <t>//form[@id='dlg_0filterForm']/table/tbody/tr/td[3]/div/a/button</t>
-  </si>
-  <si>
-    <t>//form[@id='dlg_0filterForm']/table/tbody/tr/td[3]/div/a[2]/button</t>
+    <r>
+      <t>//form[@id='dlg_0filterForm']//td[text()='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//form[@id='dlg_0filterForm']//td[text()='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
   </si>
   <si>
     <t>activeRulePage</t>
@@ -561,13 +739,53 @@
     <t>typeItem</t>
   </si>
   <si>
-    <t>//*[@class='u-combobox-items-container']/table/tbody/tr</t>
+    <r>
+      <t>//span[text()='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>积分累计规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
   </si>
   <si>
     <t>积分累计规则</t>
   </si>
   <si>
-    <t>//*[@class='u-combobox-items-container']/table/tbody/tr[2]</t>
+    <r>
+      <t>//span[text()='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>积分累计活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
   </si>
   <si>
     <t>积分累计活动</t>
@@ -708,7 +926,7 @@
     <t>rulDes</t>
   </si>
   <si>
-    <t>//*[@class='table_container']/tbody/tr[2]/td[2]/div[3]/div[3]/textarea</t>
+    <t>//*[@class='table_container']//textarea[@class='u-form-textarea-input']</t>
   </si>
   <si>
     <t>积分累计规则描述</t>
@@ -935,8 +1153,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -985,6 +1203,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1015,7 +1270,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,6 +1289,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1045,74 +1331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,13 +1340,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,7 +1355,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,37 +1475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,19 +1487,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,43 +1511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,49 +1529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,7 +1541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,16 +1675,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1471,24 +1695,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1508,16 +1714,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1540,6 +1746,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1548,6 +1763,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1556,10 +1780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1568,137 +1792,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1790,6 +2014,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2158,13 +2385,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
@@ -2467,7 +2694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" ht="42.75" spans="1:5">
+    <row r="21" ht="28.5" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="28" t="s">
         <v>54</v>
@@ -2475,7 +2702,7 @@
       <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="31" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="25" t="s">
@@ -2528,7 +2755,7 @@
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:5">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="32" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="28" t="s">
@@ -2545,7 +2772,7 @@
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:5">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="28" t="s">
         <v>72</v>
       </c>
@@ -2560,7 +2787,7 @@
       </c>
     </row>
     <row r="27" ht="28.5" spans="1:5">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="28" t="s">
         <v>75</v>
       </c>
@@ -2574,249 +2801,255 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" ht="28.5" spans="1:5">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32" t="s">
+    <row r="28" ht="28.5" spans="1:6">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="31" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>80</v>
       </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="29" ht="28.5" spans="1:5">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>81</v>
+      <c r="D29" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" ht="28.5" spans="1:5">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>83</v>
+      <c r="D30" s="31" t="s">
+        <v>84</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" ht="28.5" spans="1:5">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:5">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32" t="s">
-        <v>88</v>
+      <c r="A32" s="32"/>
+      <c r="B32" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>79</v>
+      <c r="D32" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" ht="28.5" spans="1:5">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>81</v>
+      <c r="D33" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:5">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>83</v>
+      <c r="D34" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:5">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>92</v>
+      <c r="D35" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" ht="28.5" spans="1:5">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32" t="s">
-        <v>94</v>
+      <c r="A36" s="32"/>
+      <c r="B36" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" ht="28.5" spans="1:5">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" ht="28.5" spans="1:5">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" ht="28.5" spans="1:5">
-      <c r="A39" s="31"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" ht="28.5" spans="1:6">
+      <c r="A39" s="32"/>
       <c r="B39" s="28" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="30" t="s">
-        <v>102</v>
+      <c r="D39" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:5">
-      <c r="A40" s="31"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="28" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" ht="28.5" spans="1:5">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32" t="s">
-        <v>107</v>
+      <c r="A41" s="32"/>
+      <c r="B41" s="33" t="s">
+        <v>112</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" ht="28.5" spans="1:5">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
-      <c r="A43" s="31" t="s">
-        <v>112</v>
+      <c r="A43" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="28" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:5">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="28" t="s">
         <v>72</v>
       </c>
@@ -2827,182 +3060,182 @@
         <v>73</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" ht="28.5" spans="1:5">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="28" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" ht="28.5" spans="1:5">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" ht="28.5" spans="1:5">
-      <c r="A49" s="31"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" ht="28.5" spans="1:5">
-      <c r="A50" s="31"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:5">
-      <c r="A51" s="31"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="28" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" ht="42.75" spans="1:5">
-      <c r="A52" s="31"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="28" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:5">
-      <c r="A53" s="31"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="28" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:5">
-      <c r="A54" s="31"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="28" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:5">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32" t="s">
-        <v>143</v>
+      <c r="A55" s="32"/>
+      <c r="B55" s="33" t="s">
+        <v>148</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:5">
-      <c r="A56" s="31"/>
-      <c r="B56" s="32"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" ht="28.5" spans="1:5">
-      <c r="A57" s="31"/>
-      <c r="B57" s="32" t="s">
-        <v>146</v>
+      <c r="A57" s="32"/>
+      <c r="B57" s="33" t="s">
+        <v>151</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:5">
-      <c r="A58" s="31"/>
-      <c r="B58" s="32" t="s">
+      <c r="A58" s="32"/>
+      <c r="B58" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -3012,191 +3245,191 @@
         <v>60</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" ht="42.75" spans="1:5">
-      <c r="A59" s="31" t="s">
-        <v>149</v>
+      <c r="A59" s="32" t="s">
+        <v>155</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="1:5">
-      <c r="A60" s="31"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="28" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:5">
-      <c r="A61" s="31"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:5">
-      <c r="A62" s="31"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="28" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" ht="28.5" spans="1:5">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32" t="s">
-        <v>143</v>
+      <c r="A63" s="32"/>
+      <c r="B63" s="33" t="s">
+        <v>148</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" ht="28.5" spans="1:5">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" ht="27" spans="1:5">
-      <c r="A65" s="31" t="s">
-        <v>164</v>
+      <c r="A65" s="32" t="s">
+        <v>170</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C65" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" ht="28.5" spans="1:5">
-      <c r="A66" s="31"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="28" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C66" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" ht="28.5" spans="1:5">
-      <c r="A67" s="31"/>
-      <c r="B67" s="32" t="s">
-        <v>171</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" spans="1:5">
+      <c r="A67" s="32"/>
+      <c r="B67" s="33" t="s">
+        <v>177</v>
       </c>
       <c r="C67" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" ht="28.5" spans="1:5">
-      <c r="A68" s="31"/>
-      <c r="B68" s="32"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" spans="1:5">
+      <c r="A68" s="32"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
-      <c r="A69" s="31"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="28" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
-      <c r="A70" s="31"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="28" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C70" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:5">
-      <c r="A71" s="31"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="28" t="s">
         <v>65</v>
       </c>
@@ -3204,440 +3437,440 @@
         <v>28</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" ht="14.25" spans="1:5">
-      <c r="A72" s="31"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="28" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" ht="28.5" spans="1:5">
-      <c r="A73" s="31"/>
-      <c r="B73" s="32" t="s">
-        <v>187</v>
+      <c r="A73" s="32"/>
+      <c r="B73" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="C73" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" ht="28.5" spans="1:5">
-      <c r="A74" s="31"/>
-      <c r="B74" s="32"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" ht="28.5" spans="1:5">
-      <c r="A75" s="31"/>
-      <c r="B75" s="32"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" ht="28.5" spans="1:5">
-      <c r="A76" s="31"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" ht="28.5" spans="1:5">
-      <c r="A77" s="31"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" ht="28.5" spans="1:5">
-      <c r="A78" s="31"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" ht="28.5" spans="1:5">
-      <c r="A79" s="31"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" ht="28.5" spans="1:5">
-      <c r="A80" s="31"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="28" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C80" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="1:5">
-      <c r="A81" s="31"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="28" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" ht="28.5" spans="1:5">
-      <c r="A82" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="B82" s="33" t="s">
-        <v>207</v>
+      <c r="A82" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="C82" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
-      <c r="A83" s="31"/>
-      <c r="B83" s="34"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:5">
-      <c r="A84" s="31"/>
-      <c r="B84" s="34"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="35"/>
       <c r="C84" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:5">
-      <c r="A85" s="31"/>
-      <c r="B85" s="34"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="35"/>
       <c r="C85" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
-      <c r="A86" s="31"/>
-      <c r="B86" s="34"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="35"/>
       <c r="C86" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" ht="28.5" spans="1:5">
-      <c r="A87" s="31"/>
-      <c r="B87" s="35"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" ht="28.5" spans="1:5">
-      <c r="A88" s="31"/>
-      <c r="B88" s="36" t="s">
-        <v>220</v>
+      <c r="A88" s="32"/>
+      <c r="B88" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C88" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
-      <c r="A89" s="31"/>
-      <c r="B89" s="36" t="s">
-        <v>223</v>
+      <c r="A89" s="32"/>
+      <c r="B89" s="37" t="s">
+        <v>229</v>
       </c>
       <c r="C89" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:5">
-      <c r="A90" s="31"/>
-      <c r="B90" s="36" t="s">
-        <v>226</v>
+      <c r="A90" s="32"/>
+      <c r="B90" s="37" t="s">
+        <v>232</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" ht="14.25" spans="1:5">
-      <c r="A91" s="31"/>
-      <c r="B91" s="36" t="s">
-        <v>229</v>
+      <c r="A91" s="32"/>
+      <c r="B91" s="37" t="s">
+        <v>235</v>
       </c>
       <c r="C91" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
-      <c r="A92" s="31"/>
-      <c r="B92" s="36" t="s">
-        <v>232</v>
+      <c r="A92" s="32"/>
+      <c r="B92" s="37" t="s">
+        <v>238</v>
       </c>
       <c r="C92" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" ht="28.5" spans="1:5">
-      <c r="A93" s="31"/>
-      <c r="B93" s="36" t="s">
-        <v>235</v>
+      <c r="A93" s="32"/>
+      <c r="B93" s="37" t="s">
+        <v>241</v>
       </c>
       <c r="C93" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
-      <c r="A94" s="31"/>
-      <c r="B94" s="36" t="s">
-        <v>236</v>
+      <c r="A94" s="32"/>
+      <c r="B94" s="37" t="s">
+        <v>242</v>
       </c>
       <c r="C94" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:5">
-      <c r="A95" s="31"/>
-      <c r="B95" s="36" t="s">
-        <v>239</v>
+      <c r="A95" s="32"/>
+      <c r="B95" s="37" t="s">
+        <v>245</v>
       </c>
       <c r="C95" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:5">
-      <c r="A96" s="31"/>
-      <c r="B96" s="36" t="s">
-        <v>242</v>
+      <c r="A96" s="32"/>
+      <c r="B96" s="37" t="s">
+        <v>248</v>
       </c>
       <c r="C96" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" ht="28.5" spans="1:5">
-      <c r="A97" s="31"/>
-      <c r="B97" s="36" t="s">
-        <v>244</v>
+      <c r="A97" s="32"/>
+      <c r="B97" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="C97" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" ht="28.5" spans="1:5">
-      <c r="A98" s="31"/>
-      <c r="B98" s="36" t="s">
-        <v>247</v>
+      <c r="A98" s="32"/>
+      <c r="B98" s="37" t="s">
+        <v>253</v>
       </c>
       <c r="C98" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" ht="28.5" spans="1:5">
-      <c r="A99" s="31"/>
-      <c r="B99" s="36" t="s">
-        <v>250</v>
+      <c r="A99" s="32"/>
+      <c r="B99" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="C99" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" ht="28.5" spans="1:5">
-      <c r="A100" s="31"/>
-      <c r="B100" s="36" t="s">
-        <v>253</v>
+      <c r="A100" s="32"/>
+      <c r="B100" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="C100" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
-      <c r="A101" s="31"/>
-      <c r="B101" s="36" t="s">
-        <v>256</v>
+      <c r="A101" s="32"/>
+      <c r="B101" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="C101" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3674,7 +3907,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -3686,10 +3919,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
@@ -3697,71 +3930,71 @@
     </row>
     <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="17"/>
       <c r="B4" s="16" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="15" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="15" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3777,7 +4010,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -3790,13 +4023,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>4</v>
@@ -3804,58 +4037,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3863,7 +4096,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3878,8 +4111,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3896,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -3909,12 +4142,12 @@
         <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3929,7 +4162,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3937,10 +4170,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -3954,7 +4187,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:5">
@@ -3987,7 +4220,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -3996,7 +4229,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
@@ -4005,7 +4238,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -4014,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4023,23 +4256,23 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E14" s="13"/>
     </row>
